--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StianSolheim\excel-live-update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719651F5-9769-49EC-8F8D-964DCB9A213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E070C-B4E9-4AB1-833B-B0D4B1F92AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25110" yWindow="525" windowWidth="25440" windowHeight="15150" xr2:uid="{FF8D607B-7CFA-4C11-85DF-FC64F1A67AFD}"/>
   </bookViews>
@@ -2351,9 +2351,7 @@
         <f>SUM(B6:C6)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="E6" s="20"/>
       <c r="I6" s="7"/>
       <c r="L6" s="7"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StianSolheim\excel-live-update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E070C-B4E9-4AB1-833B-B0D4B1F92AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE115D7-A199-4B5A-8B57-28FA00AD1975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25110" yWindow="525" windowWidth="25440" windowHeight="15150" xr2:uid="{FF8D607B-7CFA-4C11-85DF-FC64F1A67AFD}"/>
+    <workbookView xWindow="25200" yWindow="600" windowWidth="25440" windowHeight="15150" xr2:uid="{FF8D607B-7CFA-4C11-85DF-FC64F1A67AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StianSolheim\excel-live-update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE115D7-A199-4B5A-8B57-28FA00AD1975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127B02B-FDD0-4979-8EEB-FD8450D7FF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="600" windowWidth="25440" windowHeight="15150" xr2:uid="{FF8D607B-7CFA-4C11-85DF-FC64F1A67AFD}"/>
   </bookViews>
